--- a/Data_processed/industry/metals, ferro.xlsx
+++ b/Data_processed/industry/metals, ferro.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/metals, ferro.xlsx
+++ b/Data_processed/industry/metals, ferro.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/metals, ferro.xlsx
+++ b/Data_processed/industry/metals, ferro.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2725184641831935</v>
+        <v>1.2400796</v>
       </c>
       <c r="E2" t="n">
-        <v>1.2400796</v>
+        <v>14.468374</v>
       </c>
       <c r="F2" t="n">
-        <v>14.468374</v>
+        <v>3.457671e-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5862061847471756</v>
+        <v>2.509</v>
       </c>
       <c r="E3" t="n">
-        <v>2.509</v>
+        <v>23.95995</v>
       </c>
       <c r="F3" t="n">
-        <v>23.95995</v>
+        <v>6.995757700000001e-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1329002294703228</v>
+        <v>0.6753</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6753</v>
+        <v>10.2438</v>
       </c>
       <c r="F4" t="n">
-        <v>10.2438</v>
+        <v>1.8829156e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.360459818488704</v>
+        <v>1.5958174</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5958174</v>
+        <v>17.129307</v>
       </c>
       <c r="F5" t="n">
-        <v>17.129307</v>
+        <v>4.4495623e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5408755882494913</v>
+        <v>2.32563</v>
       </c>
       <c r="E6" t="n">
-        <v>2.32563</v>
+        <v>22.588335</v>
       </c>
       <c r="F6" t="n">
-        <v>22.588335</v>
+        <v>6.4844735e-05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5598123614542319</v>
+        <v>2.799</v>
       </c>
       <c r="E7" t="n">
-        <v>2.799</v>
+        <v>30.156</v>
       </c>
       <c r="F7" t="n">
-        <v>30.156</v>
+        <v>7.804354699999999e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.694993167</v>
+        <v>3.157</v>
       </c>
       <c r="E8" t="n">
-        <v>3.157</v>
+        <v>30.261</v>
       </c>
       <c r="F8" t="n">
-        <v>30.261</v>
+        <v>8.802553699999999e-05</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.253312452141927</v>
+        <v>1.2159612</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2159612</v>
+        <v>15.486373</v>
       </c>
       <c r="F9" t="n">
-        <v>15.486373</v>
+        <v>3.3904224e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.817325105505616</v>
+        <v>2.375380666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>2.375380666666667</v>
+        <v>35.373681</v>
       </c>
       <c r="F10" t="n">
-        <v>35.373681</v>
+        <v>6.6231915e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.838658042446644</v>
+        <v>2.424924</v>
       </c>
       <c r="E11" t="n">
-        <v>2.424924</v>
+        <v>35.894285</v>
       </c>
       <c r="F11" t="n">
-        <v>35.894285</v>
+        <v>6.761331500000001e-05</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.253312452141927</v>
+        <v>1.2159612</v>
       </c>
       <c r="E12" t="n">
-        <v>1.2159612</v>
+        <v>15.486373</v>
       </c>
       <c r="F12" t="n">
-        <v>15.486373</v>
+        <v>3.3904224e-05</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.333004992132427</v>
+        <v>1.384873066666667</v>
       </c>
       <c r="E13" t="n">
-        <v>1.384873066666667</v>
+        <v>15.678849</v>
       </c>
       <c r="F13" t="n">
-        <v>15.678849</v>
+        <v>3.8613936e-05</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.269728210857927</v>
+        <v>1.270227066666667</v>
       </c>
       <c r="E14" t="n">
-        <v>1.270227066666667</v>
+        <v>15.57808</v>
       </c>
       <c r="F14" t="n">
-        <v>15.57808</v>
+        <v>3.5417301e-05</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.246981277577014</v>
+        <v>2.105812133333334</v>
       </c>
       <c r="E15" t="n">
-        <v>2.105812133333334</v>
+        <v>30.59064</v>
       </c>
       <c r="F15" t="n">
-        <v>30.59064</v>
+        <v>5.8715631e-05</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3834033191463</v>
+        <v>1.8179698</v>
       </c>
       <c r="E16" t="n">
-        <v>1.8179698</v>
+        <v>23.730446</v>
       </c>
       <c r="F16" t="n">
-        <v>23.730446</v>
+        <v>5.0689823e-05</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.62322857126144</v>
+        <v>5.697375933333334</v>
       </c>
       <c r="E17" t="n">
-        <v>5.697375933333334</v>
+        <v>43.908125</v>
       </c>
       <c r="F17" t="n">
-        <v>43.908125</v>
+        <v>0.00015885796</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.2788326657351</v>
+        <v>4.619763133333334</v>
       </c>
       <c r="E18" t="n">
-        <v>4.619763133333334</v>
+        <v>38.303214</v>
       </c>
       <c r="F18" t="n">
-        <v>38.303214</v>
+        <v>0.00012881125</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8718193264559999</v>
+        <v>3.346220733333333</v>
       </c>
       <c r="E19" t="n">
-        <v>3.346220733333333</v>
+        <v>31.679229</v>
       </c>
       <c r="F19" t="n">
-        <v>31.679229</v>
+        <v>9.3301513e-05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3.62087667778459</v>
+        <v>7.186778666666668</v>
       </c>
       <c r="E20" t="n">
-        <v>7.186778666666668</v>
+        <v>57.482489</v>
       </c>
       <c r="F20" t="n">
-        <v>57.482489</v>
+        <v>0.00020038646</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.7215785502286</v>
+        <v>5.695443</v>
       </c>
       <c r="E21" t="n">
-        <v>5.695443</v>
+        <v>48.106922</v>
       </c>
       <c r="F21" t="n">
-        <v>48.106922</v>
+        <v>0.00015880406</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.6587716188729</v>
+        <v>3.9329552</v>
       </c>
       <c r="E22" t="n">
-        <v>3.9329552</v>
+        <v>37.026706</v>
       </c>
       <c r="F22" t="n">
-        <v>37.026706</v>
+        <v>0.00010966123</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.77274958375337</v>
+        <v>6.289854666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>6.289854666666667</v>
+        <v>46.830501</v>
       </c>
       <c r="F23" t="n">
-        <v>46.830501</v>
+        <v>0.00017537784</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.3868200756403</v>
+        <v>5.047664466666667</v>
       </c>
       <c r="E24" t="n">
-        <v>5.047664466666667</v>
+        <v>40.413819</v>
       </c>
       <c r="F24" t="n">
-        <v>40.413819</v>
+        <v>0.00014074228</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9307215434048</v>
+        <v>3.5796214</v>
       </c>
       <c r="E25" t="n">
-        <v>3.5796214</v>
+        <v>32.830468</v>
       </c>
       <c r="F25" t="n">
-        <v>32.830468</v>
+        <v>9.9809344e-05</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5.26267443155158</v>
+        <v>7.644478</v>
       </c>
       <c r="E26" t="n">
-        <v>7.644478</v>
+        <v>62.846552</v>
       </c>
       <c r="F26" t="n">
-        <v>62.846552</v>
+        <v>0.00021314833</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.9073213748716</v>
+        <v>6.026003466666666</v>
       </c>
       <c r="E27" t="n">
-        <v>6.026003466666666</v>
+        <v>51.980967</v>
       </c>
       <c r="F27" t="n">
-        <v>51.980967</v>
+        <v>0.00016802097</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2.3055404319643</v>
+        <v>4.113260933333334</v>
       </c>
       <c r="E28" t="n">
-        <v>4.113260933333334</v>
+        <v>39.139821</v>
       </c>
       <c r="F28" t="n">
-        <v>39.139821</v>
+        <v>0.00011468863</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.39765716766587</v>
+        <v>6.9808</v>
       </c>
       <c r="E29" t="n">
-        <v>6.9808</v>
+        <v>55.675444</v>
       </c>
       <c r="F29" t="n">
-        <v>55.675444</v>
+        <v>0.00019464323</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2.5603644687983</v>
+        <v>5.546680533333333</v>
       </c>
       <c r="E30" t="n">
-        <v>5.546680533333333</v>
+        <v>46.801833</v>
       </c>
       <c r="F30" t="n">
-        <v>46.801833</v>
+        <v>0.00015465617</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.570836667062</v>
+        <v>3.851812</v>
       </c>
       <c r="E31" t="n">
-        <v>3.851812</v>
+        <v>36.314839</v>
       </c>
       <c r="F31" t="n">
-        <v>36.314839</v>
+        <v>0.00010739874</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.44705540477275</v>
+        <v>5.645657733333334</v>
       </c>
       <c r="E32" t="n">
-        <v>5.645657733333334</v>
+        <v>42.360896</v>
       </c>
       <c r="F32" t="n">
-        <v>42.360896</v>
+        <v>0.00015741592</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.1515964903958</v>
+        <v>4.582411066666666</v>
       </c>
       <c r="E33" t="n">
-        <v>4.582411066666666</v>
+        <v>37.185771</v>
       </c>
       <c r="F33" t="n">
-        <v>37.185771</v>
+        <v>0.00012776978</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8024177722821</v>
+        <v>3.325846866666667</v>
       </c>
       <c r="E34" t="n">
-        <v>3.325846866666667</v>
+        <v>31.069714</v>
       </c>
       <c r="F34" t="n">
-        <v>31.069714</v>
+        <v>9.2733435e-05</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.44705540477275</v>
+        <v>5.645657733333334</v>
       </c>
       <c r="E35" t="n">
-        <v>5.645657733333334</v>
+        <v>42.360896</v>
       </c>
       <c r="F35" t="n">
-        <v>42.360896</v>
+        <v>0.00015741592</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.1515964903958</v>
+        <v>4.582411066666666</v>
       </c>
       <c r="E36" t="n">
-        <v>4.582411066666666</v>
+        <v>37.185771</v>
       </c>
       <c r="F36" t="n">
-        <v>37.185771</v>
+        <v>0.00012776978</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8024177722821</v>
+        <v>3.325846866666667</v>
       </c>
       <c r="E37" t="n">
-        <v>3.325846866666667</v>
+        <v>31.069714</v>
       </c>
       <c r="F37" t="n">
-        <v>31.069714</v>
+        <v>9.2733435e-05</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.82666278316175</v>
+        <v>5.733148</v>
       </c>
       <c r="E38" t="n">
-        <v>5.733148</v>
+        <v>42.935906</v>
       </c>
       <c r="F38" t="n">
-        <v>42.935906</v>
+        <v>0.00015985538</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.4257573710938</v>
+        <v>4.645598533333334</v>
       </c>
       <c r="E39" t="n">
-        <v>4.645598533333334</v>
+        <v>37.601056</v>
       </c>
       <c r="F39" t="n">
-        <v>37.601056</v>
+        <v>0.00012953161</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9519600774371</v>
+        <v>3.360312733333334</v>
       </c>
       <c r="E40" t="n">
-        <v>3.360312733333334</v>
+        <v>31.296233</v>
       </c>
       <c r="F40" t="n">
-        <v>31.296233</v>
+        <v>9.369443599999999e-05</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.93708557263828</v>
+        <v>6.207639</v>
       </c>
       <c r="E41" t="n">
-        <v>6.207639</v>
+        <v>45.405971</v>
       </c>
       <c r="F41" t="n">
-        <v>45.405971</v>
+        <v>0.00017308545</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.5055071659522</v>
+        <v>4.988286466666667</v>
       </c>
       <c r="E42" t="n">
-        <v>4.988286466666667</v>
+        <v>39.384992</v>
       </c>
       <c r="F42" t="n">
-        <v>39.384992</v>
+        <v>0.00013908666</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9954599601134999</v>
+        <v>3.5472334</v>
       </c>
       <c r="E43" t="n">
-        <v>3.5472334</v>
+        <v>32.269289</v>
       </c>
       <c r="F43" t="n">
-        <v>32.269289</v>
+        <v>9.890628e-05</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5.027613972417001</v>
+        <v>7.372401333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>7.372401333333333</v>
+        <v>57.671935</v>
       </c>
       <c r="F44" t="n">
-        <v>57.671935</v>
+        <v>0.00020556212</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3.7375555050488</v>
+        <v>5.829503866666667</v>
       </c>
       <c r="E45" t="n">
-        <v>5.829503866666667</v>
+        <v>48.243744</v>
       </c>
       <c r="F45" t="n">
-        <v>48.243744</v>
+        <v>0.00016254204</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2.2129408403641</v>
+        <v>4.006079266666667</v>
       </c>
       <c r="E46" t="n">
-        <v>4.006079266666667</v>
+        <v>37.101336</v>
       </c>
       <c r="F46" t="n">
-        <v>37.101336</v>
+        <v>0.00011170012</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.44236280927275</v>
+        <v>5.640902266666667</v>
       </c>
       <c r="E47" t="n">
-        <v>5.640902266666667</v>
+        <v>42.393237</v>
       </c>
       <c r="F47" t="n">
-        <v>42.393237</v>
+        <v>0.00015728332</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.1482073923958</v>
+        <v>4.5789766</v>
       </c>
       <c r="E48" t="n">
-        <v>4.5789766</v>
+        <v>37.209128</v>
       </c>
       <c r="F48" t="n">
-        <v>37.209128</v>
+        <v>0.00012767402</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8005691785821</v>
+        <v>3.323973533333334</v>
       </c>
       <c r="E49" t="n">
-        <v>3.323973533333334</v>
+        <v>31.082455</v>
       </c>
       <c r="F49" t="n">
-        <v>31.082455</v>
+        <v>9.268120199999999e-05</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2.05446078987275</v>
+        <v>6.183992866666667</v>
       </c>
       <c r="E50" t="n">
-        <v>6.183992866666667</v>
+        <v>42.830007</v>
       </c>
       <c r="F50" t="n">
-        <v>42.830007</v>
+        <v>0.00017242613</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.5902781472958</v>
+        <v>4.971208666666667</v>
       </c>
       <c r="E51" t="n">
-        <v>4.971208666666667</v>
+        <v>37.524574</v>
       </c>
       <c r="F51" t="n">
-        <v>37.524574</v>
+        <v>0.00013861049</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.0416986855821</v>
+        <v>3.537918266666666</v>
       </c>
       <c r="E52" t="n">
-        <v>3.537918266666666</v>
+        <v>31.254516</v>
       </c>
       <c r="F52" t="n">
-        <v>31.254516</v>
+        <v>9.864655e-05</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3.63390888586355</v>
+        <v>7.194456666666667</v>
       </c>
       <c r="E53" t="n">
-        <v>7.194456666666667</v>
+        <v>57.223515</v>
       </c>
       <c r="F53" t="n">
-        <v>57.223515</v>
+        <v>0.00020060054</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2.7309906860376</v>
+        <v>5.700987933333334</v>
       </c>
       <c r="E54" t="n">
-        <v>5.700987933333334</v>
+        <v>47.919885</v>
       </c>
       <c r="F54" t="n">
-        <v>47.919885</v>
+        <v>0.00015895867</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.6639055275359</v>
+        <v>3.935979733333333</v>
       </c>
       <c r="E55" t="n">
-        <v>3.935979733333333</v>
+        <v>36.924686</v>
       </c>
       <c r="F55" t="n">
-        <v>36.924686</v>
+        <v>0.00010974556</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5.00939917525224</v>
+        <v>7.510628000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>7.510628000000001</v>
+        <v>59.031652</v>
       </c>
       <c r="F56" t="n">
-        <v>59.031652</v>
+        <v>0.00020941624</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2192,13 +2237,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3.7244003429869</v>
+        <v>5.929334066666667</v>
       </c>
       <c r="E57" t="n">
-        <v>5.929334066666667</v>
+        <v>49.225761</v>
       </c>
       <c r="F57" t="n">
-        <v>49.225761</v>
+        <v>0.00016532557</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2223,13 +2268,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2.2057653214198</v>
+        <v>4.060532133333334</v>
       </c>
       <c r="E58" t="n">
-        <v>4.060532133333334</v>
+        <v>37.636982</v>
       </c>
       <c r="F58" t="n">
-        <v>37.636982</v>
+        <v>0.00011321841</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2254,13 +2299,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.58036505337275</v>
+        <v>6.083918066666667</v>
       </c>
       <c r="E59" t="n">
-        <v>6.083918066666667</v>
+        <v>42.686835</v>
       </c>
       <c r="F59" t="n">
-        <v>42.686835</v>
+        <v>0.00016963578</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2285,13 +2330,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.2478756785958</v>
+        <v>4.898932400000001</v>
       </c>
       <c r="E60" t="n">
-        <v>4.898932400000001</v>
+        <v>37.421172</v>
       </c>
       <c r="F60" t="n">
-        <v>37.421172</v>
+        <v>0.00013659523</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2316,13 +2361,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.8549336999821</v>
+        <v>3.498494866666667</v>
       </c>
       <c r="E61" t="n">
-        <v>3.498494866666667</v>
+        <v>31.198115</v>
       </c>
       <c r="F61" t="n">
-        <v>31.198115</v>
+        <v>9.754732e-05</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2347,13 +2392,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3.63390888586355</v>
+        <v>7.194456666666667</v>
       </c>
       <c r="E62" t="n">
-        <v>7.194456666666667</v>
+        <v>57.223515</v>
       </c>
       <c r="F62" t="n">
-        <v>57.223515</v>
+        <v>0.00020060054</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2378,13 +2423,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2.7309906860376</v>
+        <v>5.700987933333334</v>
       </c>
       <c r="E63" t="n">
-        <v>5.700987933333334</v>
+        <v>47.919885</v>
       </c>
       <c r="F63" t="n">
-        <v>47.919885</v>
+        <v>0.00015895867</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2409,13 +2454,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1.6639055275359</v>
+        <v>3.935979733333333</v>
       </c>
       <c r="E64" t="n">
-        <v>3.935979733333333</v>
+        <v>36.924686</v>
       </c>
       <c r="F64" t="n">
-        <v>36.924686</v>
+        <v>0.00010974556</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2440,13 +2485,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1.44473331369085</v>
+        <v>5.649036133333333</v>
       </c>
       <c r="E65" t="n">
-        <v>5.649036133333333</v>
+        <v>42.478955</v>
       </c>
       <c r="F65" t="n">
-        <v>42.478955</v>
+        <v>0.00015751012</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2471,13 +2516,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.1499194323161</v>
+        <v>4.584851066666666</v>
       </c>
       <c r="E66" t="n">
-        <v>4.584851066666666</v>
+        <v>37.271036</v>
       </c>
       <c r="F66" t="n">
-        <v>37.271036</v>
+        <v>0.00012783781</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2502,13 +2547,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.8015030088913999</v>
+        <v>3.327177733333333</v>
       </c>
       <c r="E67" t="n">
-        <v>3.327177733333333</v>
+        <v>31.116223</v>
       </c>
       <c r="F67" t="n">
-        <v>31.116223</v>
+        <v>9.2770544e-05</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2533,13 +2578,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.88364610516175</v>
+        <v>6.2004504</v>
       </c>
       <c r="E68" t="n">
-        <v>6.2004504</v>
+        <v>43.23023</v>
       </c>
       <c r="F68" t="n">
-        <v>43.23023</v>
+        <v>0.00017288501</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2564,13 +2609,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.4669119959938</v>
+        <v>4.983094666666667</v>
       </c>
       <c r="E69" t="n">
-        <v>4.983094666666667</v>
+        <v>37.813623</v>
       </c>
       <c r="F69" t="n">
-        <v>37.813623</v>
+        <v>0.0001389419</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2595,13 +2640,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.9744080481371</v>
+        <v>3.544401533333333</v>
       </c>
       <c r="E70" t="n">
-        <v>3.544401533333333</v>
+        <v>31.412179</v>
       </c>
       <c r="F70" t="n">
-        <v>31.412179</v>
+        <v>9.882732e-05</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2626,13 +2671,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2.18984165371468</v>
+        <v>6.458731066666667</v>
       </c>
       <c r="E71" t="n">
-        <v>6.458731066666667</v>
+        <v>43.131429</v>
       </c>
       <c r="F71" t="n">
-        <v>43.131429</v>
+        <v>0.00018008656</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2657,13 +2702,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.6880532213849</v>
+        <v>5.169630733333333</v>
       </c>
       <c r="E72" t="n">
-        <v>5.169630733333333</v>
+        <v>37.742267</v>
       </c>
       <c r="F72" t="n">
-        <v>37.742267</v>
+        <v>0.00014414302</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2688,13 +2733,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.0950305439852</v>
+        <v>3.646148466666667</v>
       </c>
       <c r="E73" t="n">
-        <v>3.646148466666667</v>
+        <v>31.373258</v>
       </c>
       <c r="F73" t="n">
-        <v>31.373258</v>
+        <v>0.00010166429</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2719,13 +2764,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.6115215206286634</v>
+        <v>2.532140866666667</v>
       </c>
       <c r="E74" t="n">
-        <v>2.532140866666667</v>
+        <v>23.943989</v>
       </c>
       <c r="F74" t="n">
-        <v>23.943989</v>
+        <v>7.0602806e-05</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2750,13 +2795,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.6097982258804454</v>
+        <v>2.5450874</v>
       </c>
       <c r="E75" t="n">
-        <v>2.5450874</v>
+        <v>24.036151</v>
       </c>
       <c r="F75" t="n">
-        <v>24.036151</v>
+        <v>7.096379000000001e-05</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2781,13 +2826,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.6593639302230625</v>
+        <v>2.515454066666666</v>
       </c>
       <c r="E76" t="n">
-        <v>2.515454066666666</v>
+        <v>24.021618</v>
       </c>
       <c r="F76" t="n">
-        <v>24.021618</v>
+        <v>7.0137535e-05</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2812,13 +2857,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.6190813404383251</v>
+        <v>2.5378452</v>
       </c>
       <c r="E77" t="n">
-        <v>2.5378452</v>
+        <v>23.828158</v>
       </c>
       <c r="F77" t="n">
-        <v>23.828158</v>
+        <v>7.076185900000001e-05</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2843,13 +2888,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.9819281382629081</v>
+        <v>2.6462478</v>
       </c>
       <c r="E78" t="n">
-        <v>2.6462478</v>
+        <v>26.976378</v>
       </c>
       <c r="F78" t="n">
-        <v>26.976378</v>
+        <v>7.378441e-05</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2874,13 +2919,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.7582039507294337</v>
+        <v>2.645578933333334</v>
       </c>
       <c r="E79" t="n">
-        <v>2.645578933333334</v>
+        <v>24.140941</v>
       </c>
       <c r="F79" t="n">
-        <v>24.140941</v>
+        <v>7.376575999999999e-05</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2905,13 +2950,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2.242161292445227</v>
+        <v>3.160258066666667</v>
       </c>
       <c r="E80" t="n">
-        <v>3.160258066666667</v>
+        <v>35.452544</v>
       </c>
       <c r="F80" t="n">
-        <v>35.452544</v>
+        <v>8.811637999999999e-05</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2936,13 +2981,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.6366402119194337</v>
+        <v>2.568734666666667</v>
       </c>
       <c r="E81" t="n">
-        <v>2.568734666666667</v>
+        <v>23.876242</v>
       </c>
       <c r="F81" t="n">
-        <v>23.876242</v>
+        <v>7.162313800000001e-05</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2967,13 +3012,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.5660361942747352</v>
+        <v>2.362130733333334</v>
       </c>
       <c r="E82" t="n">
-        <v>2.362130733333334</v>
+        <v>22.335284</v>
       </c>
       <c r="F82" t="n">
-        <v>22.335284</v>
+        <v>6.5862472e-05</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2998,13 +3043,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>5.404937997031785</v>
+        <v>8.447182666666667</v>
       </c>
       <c r="E83" t="n">
-        <v>8.447182666666667</v>
+        <v>49.472597</v>
       </c>
       <c r="F83" t="n">
-        <v>49.472597</v>
+        <v>0.00023552987</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3029,13 +3074,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1.8145725603</v>
+        <v>4.392232533333334</v>
       </c>
       <c r="E84" t="n">
-        <v>4.392232533333334</v>
+        <v>25.225632</v>
       </c>
       <c r="F84" t="n">
-        <v>25.225632</v>
+        <v>0.0001224671</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3060,13 +3105,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>10.49543143787671</v>
+        <v>8.500384666666667</v>
       </c>
       <c r="E85" t="n">
-        <v>8.500384666666667</v>
+        <v>91.561485</v>
       </c>
       <c r="F85" t="n">
-        <v>91.561485</v>
+        <v>0.00023701327</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3091,13 +3136,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.5731247933992412</v>
+        <v>2.4038776</v>
       </c>
       <c r="E86" t="n">
-        <v>2.4038776</v>
+        <v>22.76885</v>
       </c>
       <c r="F86" t="n">
-        <v>22.76885</v>
+        <v>6.7026487e-05</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3122,13 +3167,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.5731247933992412</v>
+        <v>2.4038776</v>
       </c>
       <c r="E87" t="n">
-        <v>2.4038776</v>
+        <v>22.76885</v>
       </c>
       <c r="F87" t="n">
-        <v>22.76885</v>
+        <v>6.7026487e-05</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3153,13 +3198,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.5731247933992412</v>
+        <v>2.4038776</v>
       </c>
       <c r="E88" t="n">
-        <v>2.4038776</v>
+        <v>22.76885</v>
       </c>
       <c r="F88" t="n">
-        <v>22.76885</v>
+        <v>6.7026487e-05</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3184,13 +3229,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.5731247933992412</v>
+        <v>2.4038776</v>
       </c>
       <c r="E89" t="n">
-        <v>2.4038776</v>
+        <v>22.76885</v>
       </c>
       <c r="F89" t="n">
-        <v>22.76885</v>
+        <v>6.7026487e-05</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3215,13 +3260,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.8280106138294336</v>
+        <v>2.703036266666667</v>
       </c>
       <c r="E90" t="n">
-        <v>2.703036266666667</v>
+        <v>24.122415</v>
       </c>
       <c r="F90" t="n">
-        <v>24.122415</v>
+        <v>7.5367823e-05</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3246,13 +3291,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.7805478549896669</v>
+        <v>2.671790866666667</v>
       </c>
       <c r="E91" t="n">
-        <v>2.671790866666667</v>
+        <v>24.124251</v>
       </c>
       <c r="F91" t="n">
-        <v>24.124251</v>
+        <v>7.4496618e-05</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3277,13 +3322,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.5731247933992412</v>
+        <v>2.4038776</v>
       </c>
       <c r="E92" t="n">
-        <v>2.4038776</v>
+        <v>22.76885</v>
       </c>
       <c r="F92" t="n">
-        <v>22.76885</v>
+        <v>6.7026487e-05</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3308,13 +3353,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.5731247933992412</v>
+        <v>2.4038776</v>
       </c>
       <c r="E93" t="n">
-        <v>2.4038776</v>
+        <v>22.76885</v>
       </c>
       <c r="F93" t="n">
-        <v>22.76885</v>
+        <v>6.7026487e-05</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3339,13 +3384,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.557778357350517</v>
+        <v>3.1175174</v>
       </c>
       <c r="E94" t="n">
-        <v>3.1175174</v>
+        <v>30.756122</v>
       </c>
       <c r="F94" t="n">
-        <v>30.756122</v>
+        <v>8.6924656e-05</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3370,13 +3415,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.6413057389632413</v>
+        <v>2.6541104</v>
       </c>
       <c r="E95" t="n">
-        <v>2.6541104</v>
+        <v>24.049545</v>
       </c>
       <c r="F95" t="n">
-        <v>24.049545</v>
+        <v>7.400363999999999e-05</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3401,13 +3446,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.216689500852344</v>
+        <v>3.084834333333333</v>
       </c>
       <c r="E96" t="n">
-        <v>3.084834333333333</v>
+        <v>27.991834</v>
       </c>
       <c r="F96" t="n">
-        <v>27.991834</v>
+        <v>8.601336600000001e-05</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3432,13 +3477,13 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.8193072334932412</v>
+        <v>2.763424133333334</v>
       </c>
       <c r="E97" t="n">
-        <v>2.763424133333334</v>
+        <v>24.146966</v>
       </c>
       <c r="F97" t="n">
-        <v>24.146966</v>
+        <v>7.7051597e-05</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3463,13 +3508,13 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1.463219283332334</v>
+        <v>3.136873266666667</v>
       </c>
       <c r="E98" t="n">
-        <v>3.136873266666667</v>
+        <v>28.066284</v>
       </c>
       <c r="F98" t="n">
-        <v>28.066284</v>
+        <v>8.7464349e-05</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3494,13 +3539,13 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.672185081873701</v>
+        <v>2.747008533333334</v>
       </c>
       <c r="E99" t="n">
-        <v>2.747008533333334</v>
+        <v>24.329551</v>
       </c>
       <c r="F99" t="n">
-        <v>24.329551</v>
+        <v>7.6593887e-05</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3525,13 +3570,13 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.706004023465755</v>
+        <v>2.864870866666667</v>
       </c>
       <c r="E100" t="n">
-        <v>2.864870866666667</v>
+        <v>24.659141</v>
       </c>
       <c r="F100" t="n">
-        <v>24.659141</v>
+        <v>7.9880201e-05</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3556,13 +3601,13 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.793144378370266</v>
+        <v>3.164902533333333</v>
       </c>
       <c r="E101" t="n">
-        <v>3.164902533333333</v>
+        <v>32.615944</v>
       </c>
       <c r="F101" t="n">
-        <v>32.615944</v>
+        <v>8.824588e-05</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3587,13 +3632,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.00332492728192</v>
+        <v>2.753984133333333</v>
       </c>
       <c r="E102" t="n">
-        <v>2.753984133333333</v>
+        <v>26.858362</v>
       </c>
       <c r="F102" t="n">
-        <v>26.858362</v>
+        <v>7.6788386e-05</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3618,13 +3663,13 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.637323078583966</v>
+        <v>2.5794896</v>
       </c>
       <c r="E103" t="n">
-        <v>2.5794896</v>
+        <v>24.179399</v>
       </c>
       <c r="F103" t="n">
-        <v>24.179399</v>
+        <v>7.192301399999999e-05</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3649,13 +3694,13 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.8214542756932413</v>
+        <v>2.7646424</v>
       </c>
       <c r="E104" t="n">
-        <v>2.7646424</v>
+        <v>24.118168</v>
       </c>
       <c r="F104" t="n">
-        <v>24.118168</v>
+        <v>7.7085567e-05</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3680,13 +3725,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.8528387644262463</v>
+        <v>2.770723933333334</v>
       </c>
       <c r="E105" t="n">
-        <v>2.770723933333334</v>
+        <v>24.411379</v>
       </c>
       <c r="F105" t="n">
-        <v>24.411379</v>
+        <v>7.725513499999999e-05</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3711,13 +3756,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.6024351025022412</v>
+        <v>2.5293276</v>
       </c>
       <c r="E106" t="n">
-        <v>2.5293276</v>
+        <v>23.966848</v>
       </c>
       <c r="F106" t="n">
-        <v>23.966848</v>
+        <v>7.052436600000001e-05</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3742,13 +3787,13 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.7869184275408007</v>
+        <v>2.653438666666667</v>
       </c>
       <c r="E107" t="n">
-        <v>2.653438666666667</v>
+        <v>24.790457</v>
       </c>
       <c r="F107" t="n">
-        <v>24.790457</v>
+        <v>7.398491099999999e-05</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3773,13 +3818,13 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.7893585751208008</v>
+        <v>2.655911533333334</v>
       </c>
       <c r="E108" t="n">
-        <v>2.655911533333334</v>
+        <v>24.77364</v>
       </c>
       <c r="F108" t="n">
-        <v>24.77364</v>
+        <v>7.405386e-05</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3804,13 +3849,13 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.6048752561112412</v>
+        <v>2.531800466666667</v>
       </c>
       <c r="E109" t="n">
-        <v>2.531800466666667</v>
+        <v>23.95003</v>
       </c>
       <c r="F109" t="n">
-        <v>23.95003</v>
+        <v>7.0593314e-05</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3835,13 +3880,13 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.6048752561112412</v>
+        <v>2.531800466666667</v>
       </c>
       <c r="E110" t="n">
-        <v>2.531800466666667</v>
+        <v>23.95003</v>
       </c>
       <c r="F110" t="n">
-        <v>23.95003</v>
+        <v>7.0593314e-05</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3866,13 +3911,13 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.9611297774122234</v>
+        <v>2.756963866666667</v>
       </c>
       <c r="E111" t="n">
-        <v>2.756963866666667</v>
+        <v>24.161312</v>
       </c>
       <c r="F111" t="n">
-        <v>24.161312</v>
+        <v>7.687146699999999e-05</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3897,13 +3942,13 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1.056603276790473</v>
+        <v>2.716813733333334</v>
       </c>
       <c r="E112" t="n">
-        <v>2.716813733333334</v>
+        <v>25.119336</v>
       </c>
       <c r="F112" t="n">
-        <v>25.119336</v>
+        <v>7.5751976e-05</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3928,13 +3973,13 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.8234765328342679</v>
+        <v>2.580692133333333</v>
       </c>
       <c r="E113" t="n">
-        <v>2.580692133333333</v>
+        <v>24.008466</v>
       </c>
       <c r="F113" t="n">
-        <v>24.008466</v>
+        <v>7.1956545e-05</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3959,13 +4004,13 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1.038202839799375</v>
+        <v>2.657436066666667</v>
       </c>
       <c r="E114" t="n">
-        <v>2.657436066666667</v>
+        <v>26.191514</v>
       </c>
       <c r="F114" t="n">
-        <v>26.191514</v>
+        <v>7.409636900000001e-05</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3990,13 +4035,13 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.9654017315612611</v>
+        <v>2.676972133333333</v>
       </c>
       <c r="E115" t="n">
-        <v>2.676972133333333</v>
+        <v>26.941754</v>
       </c>
       <c r="F115" t="n">
-        <v>26.941754</v>
+        <v>7.4641086e-05</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4021,13 +4066,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.7973961436</v>
+        <v>2.689734266666667</v>
       </c>
       <c r="E116" t="n">
-        <v>2.689734266666667</v>
+        <v>23.919142</v>
       </c>
       <c r="F116" t="n">
-        <v>23.919142</v>
+        <v>7.4996929e-05</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4052,13 +4097,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.6011885003248114</v>
+        <v>2.5292144</v>
       </c>
       <c r="E117" t="n">
-        <v>2.5292144</v>
+        <v>24.010624</v>
       </c>
       <c r="F117" t="n">
-        <v>24.010624</v>
+        <v>7.052120799999999e-05</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4083,13 +4128,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3.952281877722729</v>
+        <v>6.815492666666667</v>
       </c>
       <c r="E118" t="n">
-        <v>6.815492666666667</v>
+        <v>43.218054</v>
       </c>
       <c r="F118" t="n">
-        <v>43.218054</v>
+        <v>0.00019003402</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4114,13 +4159,13 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.9512017064193488</v>
+        <v>2.5772834</v>
       </c>
       <c r="E119" t="n">
-        <v>2.5772834</v>
+        <v>26.032411</v>
       </c>
       <c r="F119" t="n">
-        <v>26.032411</v>
+        <v>7.18615e-05</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4145,13 +4190,13 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2.832462826300373</v>
+        <v>3.303534466666667</v>
       </c>
       <c r="E120" t="n">
-        <v>3.303534466666667</v>
+        <v>40.953189</v>
       </c>
       <c r="F120" t="n">
-        <v>40.953189</v>
+        <v>9.211130700000001e-05</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4176,13 +4221,13 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.6244459666961441</v>
+        <v>2.5693152</v>
       </c>
       <c r="E121" t="n">
-        <v>2.5693152</v>
+        <v>24.356109</v>
       </c>
       <c r="F121" t="n">
-        <v>24.356109</v>
+        <v>7.1639325e-05</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4207,13 +4252,13 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.7304884923250258</v>
+        <v>2.768736666666667</v>
       </c>
       <c r="E122" t="n">
-        <v>2.768736666666667</v>
+        <v>24.491542</v>
       </c>
       <c r="F122" t="n">
-        <v>24.491542</v>
+        <v>7.7199726e-05</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4238,13 +4283,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.632784211160478</v>
+        <v>2.5799214</v>
       </c>
       <c r="E123" t="n">
-        <v>2.5799214</v>
+        <v>24.364613</v>
       </c>
       <c r="F123" t="n">
-        <v>24.364613</v>
+        <v>7.1935054e-05</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4269,13 +4314,13 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.635501647513966</v>
+        <v>2.643329666666667</v>
       </c>
       <c r="E124" t="n">
-        <v>2.643329666666667</v>
+        <v>24.46164</v>
       </c>
       <c r="F124" t="n">
-        <v>24.46164</v>
+        <v>7.3703046e-05</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4300,13 +4345,13 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3.247222788024236</v>
+        <v>11.759122</v>
       </c>
       <c r="E125" t="n">
-        <v>11.759122</v>
+        <v>118.14647</v>
       </c>
       <c r="F125" t="n">
-        <v>118.14647</v>
+        <v>0.00032787552</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4331,13 +4376,13 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2.12703498096042</v>
+        <v>7.796</v>
       </c>
       <c r="E126" t="n">
-        <v>7.796</v>
+        <v>79.677098</v>
       </c>
       <c r="F126" t="n">
-        <v>79.677098</v>
+        <v>0.00021737316</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4347,5 +4392,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>